--- a/structure_logic_sheet.xlsx
+++ b/structure_logic_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Clubbing logic</t>
   </si>
@@ -34,6 +34,33 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Category-1</t>
+  </si>
+  <si>
+    <t>Category-2</t>
+  </si>
+  <si>
+    <t>Category-3</t>
+  </si>
+  <si>
+    <t>Category-4</t>
+  </si>
+  <si>
+    <t>Category-5</t>
+  </si>
+  <si>
+    <t>Category-6</t>
+  </si>
+  <si>
+    <t>Category-7</t>
+  </si>
+  <si>
+    <t>Category-8</t>
+  </si>
+  <si>
+    <t>Category-9</t>
+  </si>
+  <si>
     <t>Logic-1</t>
   </si>
   <si>
@@ -58,6 +85,9 @@
     <t>Lakeside Insurance Fulfillment Centre</t>
   </si>
   <si>
+    <t>Covid-19 Claims</t>
+  </si>
+  <si>
     <t>Logic-2</t>
   </si>
   <si>
@@ -95,9 +125,6 @@
   </si>
   <si>
     <t>&lt;address_logic&gt; did not provide</t>
-  </si>
-  <si>
-    <t>Mr Smith</t>
   </si>
   <si>
     <t>Moreover,</t>
@@ -131,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -151,10 +178,6 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -208,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -226,9 +249,8 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -449,6 +471,7 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="50.71"/>
     <col customWidth="1" min="3" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="7" width="25.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -461,10 +484,10 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -473,70 +496,102 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -544,33 +599,31 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -578,21 +631,21 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
